--- a/Testing_Outputs/feature_coefficients.xlsx
+++ b/Testing_Outputs/feature_coefficients.xlsx
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.953680047419256</v>
+        <v>-3.97776658456015</v>
       </c>
       <c r="C2" t="n">
-        <v>3.953680047419256</v>
+        <v>3.97776658456015</v>
       </c>
     </row>
     <row r="3">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.946390421964756</v>
+        <v>-3.969261493599962</v>
       </c>
       <c r="C3" t="n">
-        <v>3.946390421964756</v>
+        <v>3.969261493599962</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.750637928685936</v>
+        <v>-3.76986725750588</v>
       </c>
       <c r="C4" t="n">
-        <v>3.750637928685936</v>
+        <v>3.76986725750588</v>
       </c>
     </row>
     <row r="5">
@@ -497,36 +497,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.726925448330718</v>
+        <v>-3.763931756587098</v>
       </c>
       <c r="C5" t="n">
-        <v>3.726925448330718</v>
+        <v>3.763931756587098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>state_AZ</t>
+          <t>state_IL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.597248663466888</v>
+        <v>-3.639017810781491</v>
       </c>
       <c r="C6" t="n">
-        <v>3.597248663466888</v>
+        <v>3.639017810781491</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>state_IL</t>
+          <t>state_AZ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.596858791621659</v>
+        <v>-3.618282848922007</v>
       </c>
       <c r="C7" t="n">
-        <v>3.596858791621659</v>
+        <v>3.618282848922007</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.544015432773452</v>
+        <v>-3.560989595324209</v>
       </c>
       <c r="C8" t="n">
-        <v>3.544015432773452</v>
+        <v>3.560989595324209</v>
       </c>
     </row>
     <row r="9">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.481389350520753</v>
+        <v>-3.492417692783448</v>
       </c>
       <c r="C9" t="n">
-        <v>3.481389350520753</v>
+        <v>3.492417692783448</v>
       </c>
     </row>
     <row r="10">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.425572509795423</v>
+        <v>-3.449440796540373</v>
       </c>
       <c r="C10" t="n">
-        <v>3.425572509795423</v>
+        <v>3.449440796540373</v>
       </c>
     </row>
     <row r="11">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.410742586983933</v>
+        <v>-3.437104644131678</v>
       </c>
       <c r="C11" t="n">
-        <v>3.410742586983933</v>
+        <v>3.437104644131678</v>
       </c>
     </row>
     <row r="12">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.379130501844738</v>
+        <v>-3.405128859385818</v>
       </c>
       <c r="C12" t="n">
-        <v>3.379130501844738</v>
+        <v>3.405128859385818</v>
       </c>
     </row>
     <row r="13">
@@ -601,62 +601,62 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.372093739439781</v>
+        <v>-3.398002127247929</v>
       </c>
       <c r="C13" t="n">
-        <v>3.372093739439781</v>
+        <v>3.398002127247929</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>state_WI</t>
+          <t>state_DE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.367764450951405</v>
+        <v>-3.387530117291487</v>
       </c>
       <c r="C14" t="n">
-        <v>3.367764450951405</v>
+        <v>3.387530117291487</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>state_DE</t>
+          <t>state_WI</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.365197950343527</v>
+        <v>-3.375950258284826</v>
       </c>
       <c r="C15" t="n">
-        <v>3.365197950343527</v>
+        <v>3.375950258284826</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>state_LA</t>
+          <t>state_TN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.34091723444511</v>
+        <v>-3.373479257497685</v>
       </c>
       <c r="C16" t="n">
-        <v>3.34091723444511</v>
+        <v>3.373479257497685</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>state_TN</t>
+          <t>state_LA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.333242640004331</v>
+        <v>-3.352513087446244</v>
       </c>
       <c r="C17" t="n">
-        <v>3.333242640004331</v>
+        <v>3.352513087446244</v>
       </c>
     </row>
     <row r="18">
@@ -666,36 +666,36 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.324146419251062</v>
+        <v>-3.347980769195461</v>
       </c>
       <c r="C18" t="n">
-        <v>3.324146419251062</v>
+        <v>3.347980769195461</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>state_OH</t>
+          <t>state_CT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3.290320067892119</v>
+        <v>-3.289450059766077</v>
       </c>
       <c r="C19" t="n">
-        <v>3.290320067892119</v>
+        <v>3.289450059766077</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>state_CT</t>
+          <t>state_NE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-3.257129924249945</v>
+        <v>-3.281063340018913</v>
       </c>
       <c r="C20" t="n">
-        <v>3.257129924249945</v>
+        <v>3.281063340018913</v>
       </c>
     </row>
     <row r="21">
@@ -705,88 +705,88 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3.24979872367922</v>
+        <v>-3.25636008255829</v>
       </c>
       <c r="C21" t="n">
-        <v>3.24979872367922</v>
+        <v>3.25636008255829</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>state_NE</t>
+          <t>state_OK</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.239173216475321</v>
+        <v>-3.248318934523048</v>
       </c>
       <c r="C22" t="n">
-        <v>3.239173216475321</v>
+        <v>3.248318934523048</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>state_OK</t>
+          <t>state_ID</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-3.218615930479961</v>
+        <v>-3.244962199313525</v>
       </c>
       <c r="C23" t="n">
-        <v>3.218615930479961</v>
+        <v>3.244962199313525</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>state_IA</t>
+          <t>state_OH</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-3.2173927310465</v>
+        <v>-3.227802982904671</v>
       </c>
       <c r="C24" t="n">
-        <v>3.2173927310465</v>
+        <v>3.227802982904671</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>state_ID</t>
+          <t>state_IA</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-3.216832447889872</v>
+        <v>-3.227512084073829</v>
       </c>
       <c r="C25" t="n">
-        <v>3.216832447889872</v>
+        <v>3.227512084073829</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>state_NC</t>
+          <t>state_IN</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-3.212604296880783</v>
+        <v>-3.173611028430942</v>
       </c>
       <c r="C26" t="n">
-        <v>3.212604296880783</v>
+        <v>3.173611028430942</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>state_NM</t>
+          <t>state_NC</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.172307686915445</v>
+        <v>-3.163045144500181</v>
       </c>
       <c r="C27" t="n">
-        <v>3.172307686915445</v>
+        <v>3.163045144500181</v>
       </c>
     </row>
     <row r="28">
@@ -796,140 +796,140 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-3.126001551024914</v>
+        <v>-3.162391495993095</v>
       </c>
       <c r="C28" t="n">
-        <v>3.126001551024914</v>
+        <v>3.162391495993095</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>state_OR</t>
+          <t>state_WY</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.101256188035291</v>
+        <v>-3.153485638138096</v>
       </c>
       <c r="C29" t="n">
-        <v>3.101256188035291</v>
+        <v>3.153485638138096</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>state_KY</t>
+          <t>state_OR</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-3.058191488363438</v>
+        <v>-3.152642658346375</v>
       </c>
       <c r="C30" t="n">
-        <v>3.058191488363438</v>
+        <v>3.152642658346375</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>voice mail plan_yes</t>
+          <t>state_NM</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-3.056303600939697</v>
+        <v>-3.127243872557182</v>
       </c>
       <c r="C31" t="n">
-        <v>3.056303600939697</v>
+        <v>3.127243872557182</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>state_GA</t>
+          <t>state_NY</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-3.041424172931307</v>
+        <v>-3.116994586921533</v>
       </c>
       <c r="C32" t="n">
-        <v>3.041424172931307</v>
+        <v>3.116994586921533</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>state_WY</t>
+          <t>state_KY</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-3.03228674801662</v>
+        <v>-3.088332884887915</v>
       </c>
       <c r="C33" t="n">
-        <v>3.03228674801662</v>
+        <v>3.088332884887915</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>state_IN</t>
+          <t>state_GA</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3.013539465756446</v>
+        <v>-3.072106306639076</v>
       </c>
       <c r="C34" t="n">
-        <v>3.013539465756446</v>
+        <v>3.072106306639076</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>state_NH</t>
+          <t>state_MD</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-2.979279064064856</v>
+        <v>-3.055761605283015</v>
       </c>
       <c r="C35" t="n">
-        <v>2.979279064064856</v>
+        <v>3.055761605283015</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>state_MI</t>
+          <t>state_NH</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-2.960372966878239</v>
+        <v>-3.00493410501233</v>
       </c>
       <c r="C36" t="n">
-        <v>2.960372966878239</v>
+        <v>3.00493410501233</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>state_WA</t>
+          <t>state_MI</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2.930909392726489</v>
+        <v>-2.983277566927963</v>
       </c>
       <c r="C37" t="n">
-        <v>2.930909392726489</v>
+        <v>2.983277566927963</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>state_NY</t>
+          <t>voice mail plan_yes</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-2.905106931099008</v>
+        <v>-2.946156352482378</v>
       </c>
       <c r="C38" t="n">
-        <v>2.905106931099008</v>
+        <v>2.946156352482378</v>
       </c>
     </row>
     <row r="39">
@@ -939,49 +939,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-2.898808466609529</v>
+        <v>-2.933126654475189</v>
       </c>
       <c r="C39" t="n">
-        <v>2.898808466609529</v>
+        <v>2.933126654475189</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>state_MD</t>
+          <t>state_MN</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.895982975046116</v>
+        <v>-2.902986909825001</v>
       </c>
       <c r="C40" t="n">
-        <v>2.895982975046116</v>
+        <v>2.902986909825001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>state_MN</t>
+          <t>state_MA</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2.880035671452922</v>
+        <v>-2.843443631666859</v>
       </c>
       <c r="C41" t="n">
-        <v>2.880035671452922</v>
+        <v>2.843443631666859</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>state_MA</t>
+          <t>state_WA</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-2.877905639042806</v>
+        <v>-2.841963654201038</v>
       </c>
       <c r="C42" t="n">
-        <v>2.877905639042806</v>
+        <v>2.841963654201038</v>
       </c>
     </row>
     <row r="43">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-2.795879614928657</v>
+        <v>-2.832162190462595</v>
       </c>
       <c r="C43" t="n">
-        <v>2.795879614928657</v>
+        <v>2.832162190462595</v>
       </c>
     </row>
     <row r="44">
@@ -1004,23 +1004,23 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-2.783555159728475</v>
+        <v>-2.782046381177298</v>
       </c>
       <c r="C44" t="n">
-        <v>2.783555159728475</v>
+        <v>2.782046381177298</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>state_NJ</t>
+          <t>state_NV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-2.683356889318828</v>
+        <v>-2.709046508038483</v>
       </c>
       <c r="C45" t="n">
-        <v>2.683356889318828</v>
+        <v>2.709046508038483</v>
       </c>
     </row>
     <row r="46">
@@ -1030,75 +1030,75 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-2.636507759240354</v>
+        <v>-2.648476765590552</v>
       </c>
       <c r="C46" t="n">
-        <v>2.636507759240354</v>
+        <v>2.648476765590552</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>state_PA</t>
+          <t>state_NJ</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-2.592449252948823</v>
+        <v>-2.629644240974747</v>
       </c>
       <c r="C47" t="n">
-        <v>2.592449252948823</v>
+        <v>2.629644240974747</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>state_MT</t>
+          <t>state_PA</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-2.565759670084355</v>
+        <v>-2.618550201778169</v>
       </c>
       <c r="C48" t="n">
-        <v>2.565759670084355</v>
+        <v>2.618550201778169</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>state_CA</t>
+          <t>state_MT</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-2.392267383030981</v>
+        <v>-2.588238333635392</v>
       </c>
       <c r="C49" t="n">
-        <v>2.392267383030981</v>
+        <v>2.588238333635392</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>state_NV</t>
+          <t>state_TX</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-2.389156709901893</v>
+        <v>-2.416672190352188</v>
       </c>
       <c r="C50" t="n">
-        <v>2.389156709901893</v>
+        <v>2.416672190352188</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>state_TX</t>
+          <t>state_CA</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-2.30039673953521</v>
+        <v>-2.415683936645322</v>
       </c>
       <c r="C51" t="n">
-        <v>2.30039673953521</v>
+        <v>2.415683936645322</v>
       </c>
     </row>
     <row r="52">
@@ -1108,10 +1108,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-2.212336000854887</v>
+        <v>-2.332305130448096</v>
       </c>
       <c r="C52" t="n">
-        <v>2.212336000854887</v>
+        <v>2.332305130448096</v>
       </c>
     </row>
     <row r="53">
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.473716239872664</v>
+        <v>1.51703860886911</v>
       </c>
       <c r="C53" t="n">
-        <v>1.473716239872664</v>
+        <v>1.51703860886911</v>
       </c>
     </row>
     <row r="54">
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3856354125342508</v>
+        <v>0.3916476680557941</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3856354125342508</v>
+        <v>0.3916476680557941</v>
       </c>
     </row>
     <row r="55">
@@ -1147,62 +1147,62 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.1339167791512563</v>
+        <v>-0.1446154093625406</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1339167791512563</v>
+        <v>0.1446154093625406</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>number vmail messages</t>
+          <t>total intl charge</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.06431352012998955</v>
+        <v>0.07066259214403933</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06431352012998955</v>
+        <v>0.07066259214403933</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>total intl minutes</t>
+          <t>number vmail messages</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.05655911607801881</v>
+        <v>0.06237236362277362</v>
       </c>
       <c r="C57" t="n">
-        <v>0.05655911607801881</v>
+        <v>0.06237236362277362</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>total intl charge</t>
+          <t>total intl minutes</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.04781956906485241</v>
+        <v>0.05826339066047475</v>
       </c>
       <c r="C58" t="n">
-        <v>0.04781956906485241</v>
+        <v>0.05826339066047475</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>total eve charge</t>
+          <t>total night charge</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.03886981391706748</v>
+        <v>-0.009918163512102699</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03886981391706748</v>
+        <v>0.009918163512102699</v>
       </c>
     </row>
     <row r="60">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0113920527583371</v>
+        <v>0.008934065958572259</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0113920527583371</v>
+        <v>0.008934065958572259</v>
       </c>
     </row>
     <row r="61">
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.008626132465982792</v>
+        <v>0.004934332624333435</v>
       </c>
       <c r="C61" t="n">
-        <v>0.008626132465982792</v>
+        <v>0.004934332624333435</v>
       </c>
     </row>
     <row r="62">
@@ -1238,62 +1238,62 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.00806467477158263</v>
+        <v>0.004877134549084597</v>
       </c>
       <c r="C62" t="n">
-        <v>0.00806467477158263</v>
+        <v>0.004877134549084597</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>total night charge</t>
+          <t>total night minutes</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.00179910716138942</v>
+        <v>0.002641924427973345</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00179910716138942</v>
+        <v>0.002641924427973345</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>total night minutes</t>
+          <t>total eve charge</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.001664469831424236</v>
+        <v>-0.002503104084954062</v>
       </c>
       <c r="C64" t="n">
-        <v>0.001664469831424236</v>
+        <v>0.002503104084954062</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>account length</t>
+          <t>total night calls</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.001108872996171351</v>
+        <v>-0.001745617618501688</v>
       </c>
       <c r="C65" t="n">
-        <v>0.001108872996171351</v>
+        <v>0.001745617618501688</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>total eve calls</t>
+          <t>account length</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.0009939720231713657</v>
+        <v>0.0008992786950649727</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0009939720231713657</v>
+        <v>0.0008992786950649727</v>
       </c>
     </row>
     <row r="67">
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0008969966791835279</v>
+        <v>0.0006847776834130952</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0008969966791835279</v>
+        <v>0.0006847776834130952</v>
       </c>
     </row>
     <row r="68">
@@ -1316,23 +1316,23 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.0007323767666804278</v>
+        <v>-0.0002651686125629379</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0007323767666804278</v>
+        <v>0.0002651686125629379</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>total night calls</t>
+          <t>total eve calls</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.0005169053435237667</v>
+        <v>0.0002462871648606535</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0005169053435237667</v>
+        <v>0.0002462871648606535</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Outputs/feature_coefficients.xlsx
+++ b/Testing_Outputs/feature_coefficients.xlsx
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.97776658456015</v>
+        <v>-3.981669182352784</v>
       </c>
       <c r="C2" t="n">
-        <v>3.97776658456015</v>
+        <v>3.981669182352784</v>
       </c>
     </row>
     <row r="3">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.969261493599962</v>
+        <v>-3.975124635425136</v>
       </c>
       <c r="C3" t="n">
-        <v>3.969261493599962</v>
+        <v>3.975124635425136</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.76986725750588</v>
+        <v>-3.793082060819917</v>
       </c>
       <c r="C4" t="n">
-        <v>3.76986725750588</v>
+        <v>3.793082060819917</v>
       </c>
     </row>
     <row r="5">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.763931756587098</v>
+        <v>-3.764159992540425</v>
       </c>
       <c r="C5" t="n">
-        <v>3.763931756587098</v>
+        <v>3.764159992540425</v>
       </c>
     </row>
     <row r="6">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.639017810781491</v>
+        <v>-3.641807361289933</v>
       </c>
       <c r="C6" t="n">
-        <v>3.639017810781491</v>
+        <v>3.641807361289933</v>
       </c>
     </row>
     <row r="7">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.618282848922007</v>
+        <v>-3.639304313118213</v>
       </c>
       <c r="C7" t="n">
-        <v>3.618282848922007</v>
+        <v>3.639304313118213</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.560989595324209</v>
+        <v>-3.566965301078359</v>
       </c>
       <c r="C8" t="n">
-        <v>3.560989595324209</v>
+        <v>3.566965301078359</v>
       </c>
     </row>
     <row r="9">
@@ -549,88 +549,88 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.492417692783448</v>
+        <v>-3.530831466607714</v>
       </c>
       <c r="C9" t="n">
-        <v>3.492417692783448</v>
+        <v>3.530831466607714</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>state_CO</t>
+          <t>state_WI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.449440796540373</v>
+        <v>-3.457990115289038</v>
       </c>
       <c r="C10" t="n">
-        <v>3.449440796540373</v>
+        <v>3.457990115289038</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>state_WV</t>
+          <t>state_CO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.437104644131678</v>
+        <v>-3.45592962963688</v>
       </c>
       <c r="C11" t="n">
-        <v>3.437104644131678</v>
+        <v>3.45592962963688</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>state_FL</t>
+          <t>state_WV</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.405128859385818</v>
+        <v>-3.453748845948945</v>
       </c>
       <c r="C12" t="n">
-        <v>3.405128859385818</v>
+        <v>3.453748845948945</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>state_SD</t>
+          <t>state_DE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.398002127247929</v>
+        <v>-3.409149705835587</v>
       </c>
       <c r="C13" t="n">
-        <v>3.398002127247929</v>
+        <v>3.409149705835587</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>state_DE</t>
+          <t>state_FL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.387530117291487</v>
+        <v>-3.406715139305094</v>
       </c>
       <c r="C14" t="n">
-        <v>3.387530117291487</v>
+        <v>3.406715139305094</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>state_WI</t>
+          <t>state_SD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.375950258284826</v>
+        <v>-3.403118777251317</v>
       </c>
       <c r="C15" t="n">
-        <v>3.375950258284826</v>
+        <v>3.403118777251317</v>
       </c>
     </row>
     <row r="16">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.373479257497685</v>
+        <v>-3.391842185375438</v>
       </c>
       <c r="C16" t="n">
-        <v>3.373479257497685</v>
+        <v>3.391842185375438</v>
       </c>
     </row>
     <row r="17">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.352513087446244</v>
+        <v>-3.370754750738382</v>
       </c>
       <c r="C17" t="n">
-        <v>3.352513087446244</v>
+        <v>3.370754750738382</v>
       </c>
     </row>
     <row r="18">
@@ -666,62 +666,62 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.347980769195461</v>
+        <v>-3.36306452122146</v>
       </c>
       <c r="C18" t="n">
-        <v>3.347980769195461</v>
+        <v>3.36306452122146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>state_CT</t>
+          <t>state_UT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3.289450059766077</v>
+        <v>-3.292851006993222</v>
       </c>
       <c r="C19" t="n">
-        <v>3.289450059766077</v>
+        <v>3.292851006993222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>state_NE</t>
+          <t>state_CT</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-3.281063340018913</v>
+        <v>-3.291100865369797</v>
       </c>
       <c r="C20" t="n">
-        <v>3.281063340018913</v>
+        <v>3.291100865369797</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>state_UT</t>
+          <t>state_NE</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3.25636008255829</v>
+        <v>-3.276643914791241</v>
       </c>
       <c r="C21" t="n">
-        <v>3.25636008255829</v>
+        <v>3.276643914791241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>state_OK</t>
+          <t>state_IA</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.248318934523048</v>
+        <v>-3.261448502323486</v>
       </c>
       <c r="C22" t="n">
-        <v>3.248318934523048</v>
+        <v>3.261448502323486</v>
       </c>
     </row>
     <row r="23">
@@ -731,257 +731,257 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-3.244962199313525</v>
+        <v>-3.257939412018935</v>
       </c>
       <c r="C23" t="n">
-        <v>3.244962199313525</v>
+        <v>3.257939412018935</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>state_OH</t>
+          <t>state_OR</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-3.227802982904671</v>
+        <v>-3.210176075093548</v>
       </c>
       <c r="C24" t="n">
-        <v>3.227802982904671</v>
+        <v>3.210176075093548</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>state_IA</t>
+          <t>state_NM</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-3.227512084073829</v>
+        <v>-3.206216109984048</v>
       </c>
       <c r="C25" t="n">
-        <v>3.227512084073829</v>
+        <v>3.206216109984048</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>state_IN</t>
+          <t>state_DC</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-3.173611028430942</v>
+        <v>-3.176511644663877</v>
       </c>
       <c r="C26" t="n">
-        <v>3.173611028430942</v>
+        <v>3.176511644663877</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>state_NC</t>
+          <t>state_OH</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.163045144500181</v>
+        <v>-3.173047955706903</v>
       </c>
       <c r="C27" t="n">
-        <v>3.163045144500181</v>
+        <v>3.173047955706903</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>state_DC</t>
+          <t>state_OK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-3.162391495993095</v>
+        <v>-3.157969320596528</v>
       </c>
       <c r="C28" t="n">
-        <v>3.162391495993095</v>
+        <v>3.157969320596528</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>state_WY</t>
+          <t>state_NC</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.153485638138096</v>
+        <v>-3.14780411491077</v>
       </c>
       <c r="C29" t="n">
-        <v>3.153485638138096</v>
+        <v>3.14780411491077</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>state_OR</t>
+          <t>state_IN</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-3.152642658346375</v>
+        <v>-3.117028960201333</v>
       </c>
       <c r="C30" t="n">
-        <v>3.152642658346375</v>
+        <v>3.117028960201333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>state_NM</t>
+          <t>state_KY</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-3.127243872557182</v>
+        <v>-3.108094247739332</v>
       </c>
       <c r="C31" t="n">
-        <v>3.127243872557182</v>
+        <v>3.108094247739332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>state_NY</t>
+          <t>state_GA</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-3.116994586921533</v>
+        <v>-3.081870491027291</v>
       </c>
       <c r="C32" t="n">
-        <v>3.116994586921533</v>
+        <v>3.081870491027291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>state_KY</t>
+          <t>state_NY</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-3.088332884887915</v>
+        <v>-3.056178258621492</v>
       </c>
       <c r="C33" t="n">
-        <v>3.088332884887915</v>
+        <v>3.056178258621492</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>state_GA</t>
+          <t>state_MA</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3.072106306639076</v>
+        <v>-3.046486300793459</v>
       </c>
       <c r="C34" t="n">
-        <v>3.072106306639076</v>
+        <v>3.046486300793459</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>state_MD</t>
+          <t>state_NH</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-3.055761605283015</v>
+        <v>-3.02329792795098</v>
       </c>
       <c r="C35" t="n">
-        <v>3.055761605283015</v>
+        <v>3.02329792795098</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>state_NH</t>
+          <t>state_MI</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-3.00493410501233</v>
+        <v>-3.004660690995528</v>
       </c>
       <c r="C36" t="n">
-        <v>3.00493410501233</v>
+        <v>3.004660690995528</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>state_MI</t>
+          <t>state_KS</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2.983277566927963</v>
+        <v>-2.937553892513254</v>
       </c>
       <c r="C37" t="n">
-        <v>2.983277566927963</v>
+        <v>2.937553892513254</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>voice mail plan_yes</t>
+          <t>state_WY</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-2.946156352482378</v>
+        <v>-2.931652665211982</v>
       </c>
       <c r="C38" t="n">
-        <v>2.946156352482378</v>
+        <v>2.931652665211982</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>state_KS</t>
+          <t>state_MN</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-2.933126654475189</v>
+        <v>-2.930806808267355</v>
       </c>
       <c r="C39" t="n">
-        <v>2.933126654475189</v>
+        <v>2.930806808267355</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>state_MN</t>
+          <t>state_WA</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.902986909825001</v>
+        <v>-2.889301090148507</v>
       </c>
       <c r="C40" t="n">
-        <v>2.902986909825001</v>
+        <v>2.889301090148507</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>state_MA</t>
+          <t>state_MD</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2.843443631666859</v>
+        <v>-2.887842275003738</v>
       </c>
       <c r="C41" t="n">
-        <v>2.843443631666859</v>
+        <v>2.887842275003738</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>state_WA</t>
+          <t>state_ME</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-2.841963654201038</v>
+        <v>-2.846175120342098</v>
       </c>
       <c r="C42" t="n">
-        <v>2.841963654201038</v>
+        <v>2.846175120342098</v>
       </c>
     </row>
     <row r="43">
@@ -991,88 +991,88 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-2.832162190462595</v>
+        <v>-2.844050006536865</v>
       </c>
       <c r="C43" t="n">
-        <v>2.832162190462595</v>
+        <v>2.844050006536865</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>state_ME</t>
+          <t>state_MS</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-2.782046381177298</v>
+        <v>-2.778472880630927</v>
       </c>
       <c r="C44" t="n">
-        <v>2.782046381177298</v>
+        <v>2.778472880630927</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>state_NV</t>
+          <t>voice mail plan_yes</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-2.709046508038483</v>
+        <v>-2.75948152536455</v>
       </c>
       <c r="C45" t="n">
-        <v>2.709046508038483</v>
+        <v>2.75948152536455</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>state_MS</t>
+          <t>state_NJ</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-2.648476765590552</v>
+        <v>-2.714675733442863</v>
       </c>
       <c r="C46" t="n">
-        <v>2.648476765590552</v>
+        <v>2.714675733442863</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>state_NJ</t>
+          <t>state_PA</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-2.629644240974747</v>
+        <v>-2.708075276360503</v>
       </c>
       <c r="C47" t="n">
-        <v>2.629644240974747</v>
+        <v>2.708075276360503</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>state_PA</t>
+          <t>state_MT</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-2.618550201778169</v>
+        <v>-2.632247547546313</v>
       </c>
       <c r="C48" t="n">
-        <v>2.618550201778169</v>
+        <v>2.632247547546313</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>state_MT</t>
+          <t>state_NV</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-2.588238333635392</v>
+        <v>-2.59750362405589</v>
       </c>
       <c r="C49" t="n">
-        <v>2.588238333635392</v>
+        <v>2.59750362405589</v>
       </c>
     </row>
     <row r="50">
@@ -1082,10 +1082,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-2.416672190352188</v>
+        <v>-2.473685564763608</v>
       </c>
       <c r="C50" t="n">
-        <v>2.416672190352188</v>
+        <v>2.473685564763608</v>
       </c>
     </row>
     <row r="51">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-2.415683936645322</v>
+        <v>-2.441187617920324</v>
       </c>
       <c r="C51" t="n">
-        <v>2.415683936645322</v>
+        <v>2.441187617920324</v>
       </c>
     </row>
     <row r="52">
@@ -1108,10 +1108,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-2.332305130448096</v>
+        <v>-2.299415234279512</v>
       </c>
       <c r="C52" t="n">
-        <v>2.332305130448096</v>
+        <v>2.299415234279512</v>
       </c>
     </row>
     <row r="53">
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.51703860886911</v>
+        <v>1.48370204701723</v>
       </c>
       <c r="C53" t="n">
-        <v>1.51703860886911</v>
+        <v>1.48370204701723</v>
       </c>
     </row>
     <row r="54">
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3916476680557941</v>
+        <v>0.3806829395830256</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3916476680557941</v>
+        <v>0.3806829395830256</v>
       </c>
     </row>
     <row r="55">
@@ -1147,192 +1147,192 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.1446154093625406</v>
+        <v>-0.1281835980426144</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1446154093625406</v>
+        <v>0.1281835980426144</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>total intl charge</t>
+          <t>total intl minutes</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.07066259214403933</v>
+        <v>0.06238189539588748</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07066259214403933</v>
+        <v>0.06238189539588748</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>number vmail messages</t>
+          <t>total intl charge</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.06237236362277362</v>
+        <v>0.05948879551605404</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06237236362277362</v>
+        <v>0.05948879551605404</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>total intl minutes</t>
+          <t>number vmail messages</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.05826339066047475</v>
+        <v>0.05566512891453215</v>
       </c>
       <c r="C58" t="n">
-        <v>0.05826339066047475</v>
+        <v>0.05566512891453215</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>total night charge</t>
+          <t>total day charge</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.009918163512102699</v>
+        <v>-0.03849432958663385</v>
       </c>
       <c r="C59" t="n">
-        <v>0.009918163512102699</v>
+        <v>0.03849432958663385</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>total day minutes</t>
+          <t>total eve charge</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.008934065958572259</v>
+        <v>-0.01999000590256489</v>
       </c>
       <c r="C60" t="n">
-        <v>0.008934065958572259</v>
+        <v>0.01999000590256489</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>total day charge</t>
+          <t>total day minutes</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.004934332624333435</v>
+        <v>0.01574118740154009</v>
       </c>
       <c r="C61" t="n">
-        <v>0.004934332624333435</v>
+        <v>0.01574118740154009</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>total eve minutes</t>
+          <t>total night charge</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.004877134549084597</v>
+        <v>0.01284344418662861</v>
       </c>
       <c r="C62" t="n">
-        <v>0.004877134549084597</v>
+        <v>0.01284344418662861</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>total night minutes</t>
+          <t>total eve minutes</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.002641924427973345</v>
+        <v>0.006163371637639643</v>
       </c>
       <c r="C63" t="n">
-        <v>0.002641924427973345</v>
+        <v>0.006163371637639643</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>total eve charge</t>
+          <t>total night calls</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.002503104084954062</v>
+        <v>-0.001340168132916265</v>
       </c>
       <c r="C64" t="n">
-        <v>0.002503104084954062</v>
+        <v>0.001340168132916265</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>total night calls</t>
+          <t>area code</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.001745617618501688</v>
+        <v>0.001285651930221503</v>
       </c>
       <c r="C65" t="n">
-        <v>0.001745617618501688</v>
+        <v>0.001285651930221503</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>account length</t>
+          <t>total day calls</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0008992786950649727</v>
+        <v>-0.001226393687414615</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0008992786950649727</v>
+        <v>0.001226393687414615</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>area code</t>
+          <t>total night minutes</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0006847776834130952</v>
+        <v>0.001200777841236498</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0006847776834130952</v>
+        <v>0.001200777841236498</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>total day calls</t>
+          <t>total eve calls</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.0002651686125629379</v>
+        <v>-0.0004725746123715288</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0002651686125629379</v>
+        <v>0.0004725746123715288</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>total eve calls</t>
+          <t>account length</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0002462871648606535</v>
+        <v>0.0003565100666003314</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0002462871648606535</v>
+        <v>0.0003565100666003314</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Outputs/feature_coefficients.xlsx
+++ b/Testing_Outputs/feature_coefficients.xlsx
@@ -454,27 +454,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>state_VT</t>
+          <t>state_ND</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.981669182352784</v>
+        <v>-3.965176583172734</v>
       </c>
       <c r="C2" t="n">
-        <v>3.981669182352784</v>
+        <v>3.965176583172734</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>state_ND</t>
+          <t>state_VT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.975124635425136</v>
+        <v>-3.964749042985651</v>
       </c>
       <c r="C3" t="n">
-        <v>3.975124635425136</v>
+        <v>3.964749042985651</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.793082060819917</v>
+        <v>-3.774201579724445</v>
       </c>
       <c r="C4" t="n">
-        <v>3.793082060819917</v>
+        <v>3.774201579724445</v>
       </c>
     </row>
     <row r="5">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.764159992540425</v>
+        <v>-3.744896487269436</v>
       </c>
       <c r="C5" t="n">
-        <v>3.764159992540425</v>
+        <v>3.744896487269436</v>
       </c>
     </row>
     <row r="6">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.641807361289933</v>
+        <v>-3.629028517771567</v>
       </c>
       <c r="C6" t="n">
-        <v>3.641807361289933</v>
+        <v>3.629028517771567</v>
       </c>
     </row>
     <row r="7">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.639304313118213</v>
+        <v>-3.611928674151327</v>
       </c>
       <c r="C7" t="n">
-        <v>3.639304313118213</v>
+        <v>3.611928674151327</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.566965301078359</v>
+        <v>-3.550609671423023</v>
       </c>
       <c r="C8" t="n">
-        <v>3.566965301078359</v>
+        <v>3.550609671423023</v>
       </c>
     </row>
     <row r="9">
@@ -549,36 +549,36 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.530831466607714</v>
+        <v>-3.497310081695448</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530831466607714</v>
+        <v>3.497310081695448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>state_WI</t>
+          <t>state_CO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.457990115289038</v>
+        <v>-3.443115140956753</v>
       </c>
       <c r="C10" t="n">
-        <v>3.457990115289038</v>
+        <v>3.443115140956753</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>state_CO</t>
+          <t>state_WI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.45592962963688</v>
+        <v>-3.438048833269263</v>
       </c>
       <c r="C11" t="n">
-        <v>3.45592962963688</v>
+        <v>3.438048833269263</v>
       </c>
     </row>
     <row r="12">
@@ -588,49 +588,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.453748845948945</v>
+        <v>-3.423976953269703</v>
       </c>
       <c r="C12" t="n">
-        <v>3.453748845948945</v>
+        <v>3.423976953269703</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>state_DE</t>
+          <t>state_FL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.409149705835587</v>
+        <v>-3.397913624968191</v>
       </c>
       <c r="C13" t="n">
-        <v>3.409149705835587</v>
+        <v>3.397913624968191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>state_FL</t>
+          <t>state_SD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.406715139305094</v>
+        <v>-3.382156550261785</v>
       </c>
       <c r="C14" t="n">
-        <v>3.406715139305094</v>
+        <v>3.382156550261785</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>state_SD</t>
+          <t>state_DE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.403118777251317</v>
+        <v>-3.381551269966988</v>
       </c>
       <c r="C15" t="n">
-        <v>3.403118777251317</v>
+        <v>3.381551269966988</v>
       </c>
     </row>
     <row r="16">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.391842185375438</v>
+        <v>-3.3684416750671</v>
       </c>
       <c r="C16" t="n">
-        <v>3.391842185375438</v>
+        <v>3.3684416750671</v>
       </c>
     </row>
     <row r="17">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.370754750738382</v>
+        <v>-3.348718445012464</v>
       </c>
       <c r="C17" t="n">
-        <v>3.370754750738382</v>
+        <v>3.348718445012464</v>
       </c>
     </row>
     <row r="18">
@@ -666,36 +666,36 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.36306452122146</v>
+        <v>-3.340528031815097</v>
       </c>
       <c r="C18" t="n">
-        <v>3.36306452122146</v>
+        <v>3.340528031815097</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>state_UT</t>
+          <t>state_CT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3.292851006993222</v>
+        <v>-3.278311723502302</v>
       </c>
       <c r="C19" t="n">
-        <v>3.292851006993222</v>
+        <v>3.278311723502302</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>state_CT</t>
+          <t>state_NM</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-3.291100865369797</v>
+        <v>-3.272848308834509</v>
       </c>
       <c r="C20" t="n">
-        <v>3.291100865369797</v>
+        <v>3.272848308834509</v>
       </c>
     </row>
     <row r="21">
@@ -705,23 +705,23 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3.276643914791241</v>
+        <v>-3.262929861301813</v>
       </c>
       <c r="C21" t="n">
-        <v>3.276643914791241</v>
+        <v>3.262929861301813</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>state_IA</t>
+          <t>state_UT</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.261448502323486</v>
+        <v>-3.260247344976604</v>
       </c>
       <c r="C22" t="n">
-        <v>3.261448502323486</v>
+        <v>3.260247344976604</v>
       </c>
     </row>
     <row r="23">
@@ -731,101 +731,101 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-3.257939412018935</v>
+        <v>-3.237457162194593</v>
       </c>
       <c r="C23" t="n">
-        <v>3.257939412018935</v>
+        <v>3.237457162194593</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>state_OR</t>
+          <t>state_IA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-3.210176075093548</v>
+        <v>-3.230758569103851</v>
       </c>
       <c r="C24" t="n">
-        <v>3.210176075093548</v>
+        <v>3.230758569103851</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>state_NM</t>
+          <t>state_NC</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-3.206216109984048</v>
+        <v>-3.225037297875122</v>
       </c>
       <c r="C25" t="n">
-        <v>3.206216109984048</v>
+        <v>3.225037297875122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>state_DC</t>
+          <t>state_OH</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-3.176511644663877</v>
+        <v>-3.222352268515123</v>
       </c>
       <c r="C26" t="n">
-        <v>3.176511644663877</v>
+        <v>3.222352268515123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>state_OH</t>
+          <t>state_OR</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.173047955706903</v>
+        <v>-3.191580678841554</v>
       </c>
       <c r="C27" t="n">
-        <v>3.173047955706903</v>
+        <v>3.191580678841554</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>state_OK</t>
+          <t>state_DC</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-3.157969320596528</v>
+        <v>-3.152340861812136</v>
       </c>
       <c r="C28" t="n">
-        <v>3.157969320596528</v>
+        <v>3.152340861812136</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>state_NC</t>
+          <t>state_NY</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.14780411491077</v>
+        <v>-3.10880492722083</v>
       </c>
       <c r="C29" t="n">
-        <v>3.14780411491077</v>
+        <v>3.10880492722083</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>state_IN</t>
+          <t>state_WY</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-3.117028960201333</v>
+        <v>-3.106897607796431</v>
       </c>
       <c r="C30" t="n">
-        <v>3.117028960201333</v>
+        <v>3.106897607796431</v>
       </c>
     </row>
     <row r="31">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-3.108094247739332</v>
+        <v>-3.084991522056927</v>
       </c>
       <c r="C31" t="n">
-        <v>3.108094247739332</v>
+        <v>3.084991522056927</v>
       </c>
     </row>
     <row r="32">
@@ -848,127 +848,127 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-3.081870491027291</v>
+        <v>-3.066859103463434</v>
       </c>
       <c r="C32" t="n">
-        <v>3.081870491027291</v>
+        <v>3.066859103463434</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>state_NY</t>
+          <t>state_IN</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-3.056178258621492</v>
+        <v>-3.058447114734148</v>
       </c>
       <c r="C33" t="n">
-        <v>3.056178258621492</v>
+        <v>3.058447114734148</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>state_MA</t>
+          <t>state_OK</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3.046486300793459</v>
+        <v>-3.040260752772072</v>
       </c>
       <c r="C34" t="n">
-        <v>3.046486300793459</v>
+        <v>3.040260752772072</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>state_NH</t>
+          <t>state_MD</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-3.02329792795098</v>
+        <v>-3.021204881931173</v>
       </c>
       <c r="C35" t="n">
-        <v>3.02329792795098</v>
+        <v>3.021204881931173</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>state_MI</t>
+          <t>state_NH</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-3.004660690995528</v>
+        <v>-2.998027055883708</v>
       </c>
       <c r="C36" t="n">
-        <v>3.004660690995528</v>
+        <v>2.998027055883708</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>state_KS</t>
+          <t>state_MI</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2.937553892513254</v>
+        <v>-2.985946162567138</v>
       </c>
       <c r="C37" t="n">
-        <v>2.937553892513254</v>
+        <v>2.985946162567138</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>state_WY</t>
+          <t>state_WA</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-2.931652665211982</v>
+        <v>-2.929113741954156</v>
       </c>
       <c r="C38" t="n">
-        <v>2.931652665211982</v>
+        <v>2.929113741954156</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>state_MN</t>
+          <t>state_KS</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-2.930806808267355</v>
+        <v>-2.917858248795537</v>
       </c>
       <c r="C39" t="n">
-        <v>2.930806808267355</v>
+        <v>2.917858248795537</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>state_WA</t>
+          <t>state_MA</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.889301090148507</v>
+        <v>-2.906933587583381</v>
       </c>
       <c r="C40" t="n">
-        <v>2.889301090148507</v>
+        <v>2.906933587583381</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>state_MD</t>
+          <t>state_MN</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2.887842275003738</v>
+        <v>-2.853170974002676</v>
       </c>
       <c r="C41" t="n">
-        <v>2.887842275003738</v>
+        <v>2.853170974002676</v>
       </c>
     </row>
     <row r="42">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-2.846175120342098</v>
+        <v>-2.831745855578152</v>
       </c>
       <c r="C42" t="n">
-        <v>2.846175120342098</v>
+        <v>2.831745855578152</v>
       </c>
     </row>
     <row r="43">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-2.844050006536865</v>
+        <v>-2.817225085681627</v>
       </c>
       <c r="C43" t="n">
-        <v>2.844050006536865</v>
+        <v>2.817225085681627</v>
       </c>
     </row>
     <row r="44">
@@ -1004,36 +1004,36 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-2.778472880630927</v>
+        <v>-2.753321664650279</v>
       </c>
       <c r="C44" t="n">
-        <v>2.778472880630927</v>
+        <v>2.753321664650279</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>voice mail plan_yes</t>
+          <t>state_NJ</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-2.75948152536455</v>
+        <v>-2.740544080721583</v>
       </c>
       <c r="C45" t="n">
-        <v>2.75948152536455</v>
+        <v>2.740544080721583</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>state_NJ</t>
+          <t>voice mail plan_yes</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-2.714675733442863</v>
+        <v>-2.702701120845965</v>
       </c>
       <c r="C46" t="n">
-        <v>2.714675733442863</v>
+        <v>2.702701120845965</v>
       </c>
     </row>
     <row r="47">
@@ -1043,62 +1043,62 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-2.708075276360503</v>
+        <v>-2.688620982942536</v>
       </c>
       <c r="C47" t="n">
-        <v>2.708075276360503</v>
+        <v>2.688620982942536</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>state_MT</t>
+          <t>state_NV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-2.632247547546313</v>
+        <v>-2.653094470831157</v>
       </c>
       <c r="C48" t="n">
-        <v>2.632247547546313</v>
+        <v>2.653094470831157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>state_NV</t>
+          <t>state_MT</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-2.59750362405589</v>
+        <v>-2.594327899285263</v>
       </c>
       <c r="C49" t="n">
-        <v>2.59750362405589</v>
+        <v>2.594327899285263</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>state_TX</t>
+          <t>state_CA</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-2.473685564763608</v>
+        <v>-2.434916972575538</v>
       </c>
       <c r="C50" t="n">
-        <v>2.473685564763608</v>
+        <v>2.434916972575538</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>state_CA</t>
+          <t>state_TX</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-2.441187617920324</v>
+        <v>-2.325174901284629</v>
       </c>
       <c r="C51" t="n">
-        <v>2.441187617920324</v>
+        <v>2.325174901284629</v>
       </c>
     </row>
     <row r="52">
@@ -1108,10 +1108,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-2.299415234279512</v>
+        <v>-2.23942225556618</v>
       </c>
       <c r="C52" t="n">
-        <v>2.299415234279512</v>
+        <v>2.23942225556618</v>
       </c>
     </row>
     <row r="53">
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.48370204701723</v>
+        <v>1.488977339021147</v>
       </c>
       <c r="C53" t="n">
-        <v>1.48370204701723</v>
+        <v>1.488977339021147</v>
       </c>
     </row>
     <row r="54">
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3806829395830256</v>
+        <v>0.3829273243092515</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3806829395830256</v>
+        <v>0.3829273243092515</v>
       </c>
     </row>
     <row r="55">
@@ -1147,36 +1147,36 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.1281835980426144</v>
+        <v>-0.1431414358559815</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1281835980426144</v>
+        <v>0.1431414358559815</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>total intl minutes</t>
+          <t>total intl charge</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.06238189539588748</v>
+        <v>0.0663020673855967</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06238189539588748</v>
+        <v>0.0663020673855967</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>total intl charge</t>
+          <t>total intl minutes</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.05948879551605404</v>
+        <v>0.05760538130914342</v>
       </c>
       <c r="C57" t="n">
-        <v>0.05948879551605404</v>
+        <v>0.05760538130914342</v>
       </c>
     </row>
     <row r="58">
@@ -1186,23 +1186,23 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.05566512891453215</v>
+        <v>0.05433618287140927</v>
       </c>
       <c r="C58" t="n">
-        <v>0.05566512891453215</v>
+        <v>0.05433618287140927</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>total day charge</t>
+          <t>total night charge</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.03849432958663385</v>
+        <v>0.01429011609589755</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03849432958663385</v>
+        <v>0.01429011609589755</v>
       </c>
     </row>
     <row r="60">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.01999000590256489</v>
+        <v>-0.01418948420692023</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01999000590256489</v>
+        <v>0.01418948420692023</v>
       </c>
     </row>
     <row r="61">
@@ -1225,23 +1225,23 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01574118740154009</v>
+        <v>0.01078429169604709</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01574118740154009</v>
+        <v>0.01078429169604709</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>total night charge</t>
+          <t>total day charge</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01284344418662861</v>
+        <v>-0.007171078894355883</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01284344418662861</v>
+        <v>0.007171078894355883</v>
       </c>
     </row>
     <row r="63">
@@ -1251,10 +1251,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.006163371637639643</v>
+        <v>0.005954978650961381</v>
       </c>
       <c r="C63" t="n">
-        <v>0.006163371637639643</v>
+        <v>0.005954978650961381</v>
       </c>
     </row>
     <row r="64">
@@ -1264,75 +1264,75 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.001340168132916265</v>
+        <v>-0.001174258122228034</v>
       </c>
       <c r="C64" t="n">
-        <v>0.001340168132916265</v>
+        <v>0.001174258122228034</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>area code</t>
+          <t>total night minutes</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.001285651930221503</v>
+        <v>0.001072761202757765</v>
       </c>
       <c r="C65" t="n">
-        <v>0.001285651930221503</v>
+        <v>0.001072761202757765</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>total day calls</t>
+          <t>area code</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.001226393687414615</v>
+        <v>0.0007490642219623621</v>
       </c>
       <c r="C66" t="n">
-        <v>0.001226393687414615</v>
+        <v>0.0007490642219623621</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>total night minutes</t>
+          <t>account length</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.001200777841236498</v>
+        <v>0.0006333233277649564</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001200777841236498</v>
+        <v>0.0006333233277649564</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>total eve calls</t>
+          <t>total day calls</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.0004725746123715288</v>
+        <v>-0.0006038705723095493</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0004725746123715288</v>
+        <v>0.0006038705723095493</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>account length</t>
+          <t>total eve calls</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0003565100666003314</v>
+        <v>0.0003457585312786717</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0003565100666003314</v>
+        <v>0.0003457585312786717</v>
       </c>
     </row>
   </sheetData>
